--- a/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UGit\CatClub\ExcelConfig\pbjson\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EDD013-B745-4578-A9B7-1D49F3DB0345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21AD9D4-02BE-428B-909A-A00E2FE7190F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-7875" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="3270" windowWidth="19290" windowHeight="17910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#猫咪信息" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>猫咪id</t>
   </si>
@@ -194,23 +194,47 @@
     <t>简介</t>
   </si>
   <si>
-    <t>1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黑猫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kitty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123</t>
+    <t>猫咪议员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随便什么猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般的猫猫会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这只猫是石头里蹦出来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好看的猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金吉拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小偷猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃及猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗教猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短毛猫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -233,21 +257,66 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79967650379955446"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -256,11 +325,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -575,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,32 +700,138 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21AD9D4-02BE-428B-909A-A00E2FE7190F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189E9E49-75B5-46B6-A468-AE1824908E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="3270" windowWidth="19290" windowHeight="17910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="3105" windowWidth="19290" windowHeight="17910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#猫咪信息" sheetId="1" r:id="rId1"/>
@@ -659,7 +659,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -701,7 +701,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>61001</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>61002</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>61003</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>61004</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>

--- a/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189E9E49-75B5-46B6-A468-AE1824908E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538BC5A9-DFFE-47F2-B5A1-AE369F1FB277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="3105" windowWidth="19290" windowHeight="17910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12990" yWindow="5805" windowWidth="25020" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#猫咪信息" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>猫咪id</t>
   </si>
@@ -214,27 +214,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>好看的猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金吉拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小偷猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>埃及猫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宗教猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>短毛猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡莉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科恩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,7 +663,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -731,7 +735,7 @@
         <v>61001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -758,10 +762,10 @@
         <v>61002</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4">
@@ -785,10 +789,10 @@
         <v>61003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4">
@@ -812,10 +816,10 @@
         <v>61004</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4">

--- a/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538BC5A9-DFFE-47F2-B5A1-AE369F1FB277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CB3D20-6F0A-4107-83E4-4CAA821649C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12990" yWindow="5805" windowWidth="25020" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17445" yWindow="7620" windowWidth="22800" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#猫咪信息" sheetId="1" r:id="rId1"/>
@@ -663,7 +663,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -713,7 +713,9 @@
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <v>61000</v>
+      </c>
       <c r="E2" s="4">
         <v>0</v>
       </c>
@@ -740,7 +742,9 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>61001</v>
+      </c>
       <c r="E3" s="4">
         <v>2</v>
       </c>
@@ -767,7 +771,9 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>61002</v>
+      </c>
       <c r="E4" s="4">
         <v>2</v>
       </c>
@@ -794,7 +800,9 @@
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>61003</v>
+      </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
@@ -821,7 +829,9 @@
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>61004</v>
+      </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>

--- a/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork Source\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CB3D20-6F0A-4107-83E4-4CAA821649C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B30E5AE-AC71-4A0B-9EDF-E2C4D4308B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17445" yWindow="7620" windowWidth="22800" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#猫咪信息" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>猫咪id</t>
   </si>
@@ -239,6 +239,26 @@
   </si>
   <si>
     <t>科恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\61000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\61001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\61002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\61003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\61004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +683,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -713,8 +733,8 @@
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3">
-        <v>61000</v>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -742,8 +762,8 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3">
-        <v>61001</v>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
@@ -771,8 +791,8 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3">
-        <v>61002</v>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
@@ -800,8 +820,8 @@
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3">
-        <v>61003</v>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
@@ -829,8 +849,8 @@
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3">
-        <v>61004</v>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>

--- a/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork Source\CatClub\ExcelConfig\pbjson\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B30E5AE-AC71-4A0B-9EDF-E2C4D4308B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1A3399-84E1-438A-B2D2-FC27798832C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="4485" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#猫咪信息" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
             <scheme val="minor"/>
           </rPr>
           <t>skill
-int64</t>
+string</t>
         </r>
       </text>
     </comment>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>猫咪id</t>
   </si>
@@ -188,77 +188,93 @@
     <t>能力参数(属性参数)@2</t>
   </si>
   <si>
+    <t>黑猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪议员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随便什么猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金吉拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃及猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短毛猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡莉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\61000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\61001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\61002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\61003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites\Portraits\61004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>技能</t>
   </si>
   <si>
     <t>简介</t>
   </si>
   <si>
-    <t>黑猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪议员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随便什么猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一般的猫猫会员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>猫咪监视：猫咪可以暗中监视人类的活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>这只猫是石头里蹦出来的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金吉拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>埃及猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短毛猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡莉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯修</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科恩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\61000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\61001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\61002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\61003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\61004</t>
+    <t>猫咪陪伴：猫咪可以通过陪伴人类，降低人类心防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪入住：当人类心防低于一半后，猫咪可以入住人类家中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪洗脑：当人类没有心防时，猫咪可以洗脑控制人类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -349,7 +365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,6 +379,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -683,7 +700,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -691,7 +708,8 @@
     <col min="1" max="3" width="8" style="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="7" width="21" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8" style="1"/>
+    <col min="8" max="8" width="34" style="5" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -717,10 +735,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -728,13 +746,13 @@
         <v>61000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -745,11 +763,9 @@
       <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -757,13 +773,13 @@
         <v>61001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
@@ -774,11 +790,11 @@
       <c r="G3" s="4">
         <v>2</v>
       </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
+      <c r="H3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -786,13 +802,13 @@
         <v>61002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
@@ -803,11 +819,11 @@
       <c r="G4" s="4">
         <v>3</v>
       </c>
-      <c r="H4" s="5">
-        <v>2</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>13</v>
+      <c r="H4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -815,13 +831,13 @@
         <v>61003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
@@ -832,11 +848,11 @@
       <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="5">
-        <v>3</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>13</v>
+      <c r="H5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -844,13 +860,13 @@
         <v>61004</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -861,11 +877,11 @@
       <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="5">
-        <v>4</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>13</v>
+      <c r="H6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1A3399-84E1-438A-B2D2-FC27798832C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D7EEEE-9596-49EF-968A-9AF990B84E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="4485" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11880" yWindow="6135" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#猫咪信息" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>猫咪id</t>
   </si>
@@ -196,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随便什么猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金吉拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,19 +258,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这只猫是石头里蹦出来的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪陪伴：猫咪可以通过陪伴人类，降低人类心防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪入住：当人类心防低于一半后，猫咪可以入住人类家中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪洗脑：当人类没有心防时，猫咪可以洗脑控制人类</t>
+    <t>猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙是猫咪狩猎幸存者的后裔，幼年时便开始了流亡生活。六个月大时，他被组织找到并收留。从此开始在各国间穿梭，执行危险并重要的任务。议会的元老们一致认同，他将是颠覆人类统治，重拾古埃及猫咪的荣光的希望。\n\n
+西蒙是本次“控制因西亚地区”、“寻找圣杯”的阴谋负责人，将管理小队中的关键事物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪陪伴：猫咪可以通过陪伴人类，降低人类心防，为后续行动做好准备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡莉出生于人类家庭中，拥有纯正的波斯猫血统，也因姣好的形象而深受王后喜爱。她是共济会的新成员。三个月前，她随王后外出游历时，她遇见了猫咪西蒙，目睹了猫咪审判的惨状。之后下定决心改变这一切。\n\n
+卡莉是王后的爱猫，因其位置特殊且联络便利，在本次行动中担任联络员的职位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪入住：当人类心防不足一半后，猫咪可以入住人类家中，提升猫咪隐匿度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在因西亚地区，凯修的身手与观察能力无猫不知。他在幼年时被一个商人收养，在耳濡目染中学会了不少观察人心的技巧。两年前，商人在与因西亚老国王交易时，因报价虚高被发现而处死。凯修逃了出来，并在机缘巧合下加入了猫咪共济会。\n\n
+凯修平时负责从事新猫的培训工作，会协助这次“寻找圣杯”与“控制因西亚地区”的探查工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪洗脑：当人类没有心防时，人类家中的猫咪可以洗脑控制该人，提升猫咪影响力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科恩是共济会里的元老级猫咪，已在组织中正式工作超过五年，平时主要负责主持晋升与新成员的授洗。他精通多国的人类古文字，对旧的资料文献颇有研究，是猫咪共济会中重要的学者。\n\n
+这次特地从北方的国度前来因西亚支援，协助破译文献中隐藏着的线索。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,6 +398,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,7 +719,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -709,7 +728,7 @@
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="7" width="21" style="1" customWidth="1"/>
     <col min="8" max="8" width="34" style="5" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="61.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -735,10 +754,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -749,10 +768,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -765,21 +784,21 @@
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>61001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
@@ -791,24 +810,24 @@
         <v>2</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>61002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
@@ -822,22 +841,22 @@
       <c r="H4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>26</v>
+      <c r="I4" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>61003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
@@ -849,24 +868,24 @@
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>61004</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -878,10 +897,10 @@
         <v>2</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D7EEEE-9596-49EF-968A-9AF990B84E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27A2603-AA9E-4FB2-B06D-B9B04ECF7E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="6135" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5610" yWindow="3660" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#猫咪信息" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>猫咪id</t>
   </si>
@@ -221,26 +221,6 @@
   </si>
   <si>
     <t>科恩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\61000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\61001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\61002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\61003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites\Portraits\61004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -719,7 +699,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -754,10 +734,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -768,10 +748,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D2" s="3">
+        <v>61000</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -784,7 +764,7 @@
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
@@ -797,8 +777,8 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
+      <c r="D3" s="3">
+        <v>61001</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
@@ -810,10 +790,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
@@ -826,8 +806,8 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
+      <c r="D4" s="3">
+        <v>61002</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
@@ -839,10 +819,10 @@
         <v>3</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
@@ -855,8 +835,8 @@
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
+      <c r="D5" s="3">
+        <v>61003</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
@@ -868,10 +848,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="57" x14ac:dyDescent="0.2">
@@ -884,8 +864,8 @@
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
+      <c r="D6" s="3">
+        <v>61004</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -897,10 +877,10 @@
         <v>2</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27A2603-AA9E-4FB2-B06D-B9B04ECF7E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333829CA-0F59-4C2C-B77B-9BDFDD721F70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="3660" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8670" yWindow="4740" windowWidth="24510" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#猫咪信息" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -234,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猫咪监视：猫咪可以暗中监视人类的活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,30 +253,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猫咪陪伴：猫咪可以通过陪伴人类，降低人类心防，为后续行动做好准备。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡莉出生于人类家庭中，拥有纯正的波斯猫血统，也因姣好的形象而深受王后喜爱。她是共济会的新成员。三个月前，她随王后外出游历时，她遇见了猫咪西蒙，目睹了猫咪审判的惨状。之后下定决心改变这一切。\n\n
-卡莉是王后的爱猫，因其位置特殊且联络便利，在本次行动中担任联络员的职位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪入住：当人类心防不足一半后，猫咪可以入住人类家中，提升猫咪隐匿度。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在因西亚地区，凯修的身手与观察能力无猫不知。他在幼年时被一个商人收养，在耳濡目染中学会了不少观察人心的技巧。两年前，商人在与因西亚老国王交易时，因报价虚高被发现而处死。凯修逃了出来，并在机缘巧合下加入了猫咪共济会。\n\n
-凯修平时负责从事新猫的培训工作，会协助这次“寻找圣杯”与“控制因西亚地区”的探查工作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪洗脑：当人类没有心防时，人类家中的猫咪可以洗脑控制该人，提升猫咪影响力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>科恩是共济会里的元老级猫咪，已在组织中正式工作超过五年，平时主要负责主持晋升与新成员的授洗。他精通多国的人类古文字，对旧的资料文献颇有研究，是猫咪共济会中重要的学者。\n\n
 这次特地从北方的国度前来因西亚支援，协助破译文献中隐藏着的线索。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪监视：猫咪可以暗中观察人类的活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪陪伴：降低人类心防，为后续行动做好准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪入住：提升猫咪隐匿度。人类心防不足一半后可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪洗脑：控制人类，并提升猫咪影响力。人类无心防时可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在因西亚地区，凯修大名无猫不知。他出生于商人家庭，深谙观察人心的技巧。两年前，商人在被因西亚老国王处死。他逃了出来，并在巧合下加入了猫咪共济会。
+凯修平时负责因西亚地区新猫的培训。这次行动，他会作为本地的支援代表参与。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡莉出生于贵族家庭中。她拥有纯正的波斯猫血统，因姣好的形象而深受王后喜爱。三个月前，她外出游历时，偶然目睹了猫咪审判的惨状。于是她加入了共济会，致力于改变一切。
+卡莉是王后的爱猫，联络便利，故在行动中担任联络员。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +709,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -748,7 +758,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3">
         <v>61000</v>
@@ -790,13 +800,13 @@
         <v>2</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>61002</v>
       </c>
@@ -819,13 +829,13 @@
         <v>3</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>61003</v>
       </c>
@@ -851,7 +861,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="57" x14ac:dyDescent="0.2">
@@ -877,10 +887,10 @@
         <v>2</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333829CA-0F59-4C2C-B77B-9BDFDD721F70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AC0791-DAE8-46F8-BE3F-AE19A29FAD89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8670" yWindow="4740" windowWidth="24510" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="4530" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#猫咪信息" sheetId="1" r:id="rId1"/>
@@ -248,16 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西蒙是猫咪狩猎幸存者的后裔，幼年时便开始了流亡生活。六个月大时，他被组织找到并收留。从此开始在各国间穿梭，执行危险并重要的任务。议会的元老们一致认同，他将是颠覆人类统治，重拾古埃及猫咪的荣光的希望。\n\n
-西蒙是本次“控制因西亚地区”、“寻找圣杯”的阴谋负责人，将管理小队中的关键事物。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科恩是共济会里的元老级猫咪，已在组织中正式工作超过五年，平时主要负责主持晋升与新成员的授洗。他精通多国的人类古文字，对旧的资料文献颇有研究，是猫咪共济会中重要的学者。\n\n
-这次特地从北方的国度前来因西亚支援，协助破译文献中隐藏着的线索。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猫咪监视：猫咪可以暗中观察人类的活动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,7 +260,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猫咪洗脑：控制人类，并提升猫咪影响力。人类无心防时可用</t>
+    <t>猫咪洗脑：控制人类，并提升猫咪影响力。人类养猫，且无心防时可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡莉出生于贵族家庭中。她拥有纯正的波斯猫血统，因姣好的形象而深受王后喜爱。三个月前，她外出游历时，偶然目睹了猫咪审判的惨状。于是她加入了共济会，致力于改变一切。
+卡莉是王后的爱猫，联络便利，故在行动中担任联络员。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -279,8 +274,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡莉出生于贵族家庭中。她拥有纯正的波斯猫血统，因姣好的形象而深受王后喜爱。三个月前，她外出游历时，偶然目睹了猫咪审判的惨状。于是她加入了共济会，致力于改变一切。
-卡莉是王后的爱猫，联络便利，故在行动中担任联络员。</t>
+    <t>科恩是共济会里的元老级猫咪，已在组织中正式工作超过五年，平时主要负责主持晋升与新成员的授洗。他精通多国的人类古文字，对旧的资料文献颇有研究，是猫咪共济会中重要的学者。
+这次特地从北方的国度前来因西亚支援，协助破译文献中隐藏着的线索。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙是猫咪狩猎幸存者的后裔，幼年在流亡中度过。六个月大时，他被组织收留，此后便在各国间穿梭，立下了赫赫功劳。议会的元老们一致认同，他将是颠覆人类统治，重拾昔日猫咪荣光的希望。
+西蒙是本次阴谋得负责者，将指挥整个行动。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,7 +709,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -777,7 +777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>61001</v>
       </c>
@@ -800,13 +800,13 @@
         <v>2</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>61002</v>
       </c>
@@ -829,13 +829,13 @@
         <v>3</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>61003</v>
       </c>
@@ -858,13 +858,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>61004</v>
       </c>
@@ -887,10 +887,10 @@
         <v>2</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AC0791-DAE8-46F8-BE3F-AE19A29FAD89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07C6A8D-409F-422D-935E-7D11C459C476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="4530" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="3060" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#猫咪信息" sheetId="1" r:id="rId1"/>
@@ -264,11 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡莉出生于贵族家庭中。她拥有纯正的波斯猫血统，因姣好的形象而深受王后喜爱。三个月前，她外出游历时，偶然目睹了猫咪审判的惨状。于是她加入了共济会，致力于改变一切。
-卡莉是王后的爱猫，联络便利，故在行动中担任联络员。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在因西亚地区，凯修大名无猫不知。他出生于商人家庭，深谙观察人心的技巧。两年前，商人在被因西亚老国王处死。他逃了出来，并在巧合下加入了猫咪共济会。
 凯修平时负责因西亚地区新猫的培训。这次行动，他会作为本地的支援代表参与。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +276,11 @@
   <si>
     <t>西蒙是猫咪狩猎幸存者的后裔，幼年在流亡中度过。六个月大时，他被组织收留，此后便在各国间穿梭，立下了赫赫功劳。议会的元老们一致认同，他将是颠覆人类统治，重拾昔日猫咪荣光的希望。
 西蒙是本次阴谋得负责者，将指挥整个行动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡莉出生于贵族家庭中。她拥有纯正的波斯猫血统，因姣好的形象而深受王后喜爱。三个月前，她外出游历时，偶然目睹了猫咪审判的惨状。于是她加入了共济会，致力于改变一切。
+卡莉是王后的爱猫，地位特殊，故在行动中负责联络。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,7 +709,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -803,7 +803,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
@@ -832,7 +832,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.2">
@@ -861,7 +861,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
@@ -890,7 +890,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07C6A8D-409F-422D-935E-7D11C459C476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B510539-5A63-455D-B385-B0885E194DB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="3060" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="5025" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#猫咪信息" sheetId="1" r:id="rId1"/>
@@ -264,23 +264,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在因西亚地区，凯修大名无猫不知。他出生于商人家庭，深谙观察人心的技巧。两年前，商人在被因西亚老国王处死。他逃了出来，并在巧合下加入了猫咪共济会。
-凯修平时负责因西亚地区新猫的培训。这次行动，他会作为本地的支援代表参与。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科恩是共济会里的元老级猫咪，已在组织中正式工作超过五年，平时主要负责主持晋升与新成员的授洗。他精通多国的人类古文字，对旧的资料文献颇有研究，是猫咪共济会中重要的学者。
-这次特地从北方的国度前来因西亚支援，协助破译文献中隐藏着的线索。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙是猫咪狩猎幸存者的后裔，幼年在流亡中度过。六个月大时，他被组织收留，此后便在各国间穿梭，立下了赫赫功劳。议会的元老们一致认同，他将是颠覆人类统治，重拾昔日猫咪荣光的希望。
-西蒙是本次阴谋得负责者，将指挥整个行动。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡莉出生于贵族家庭中。她拥有纯正的波斯猫血统，因姣好的形象而深受王后喜爱。三个月前，她外出游历时，偶然目睹了猫咪审判的惨状。于是她加入了共济会，致力于改变一切。
-卡莉是王后的爱猫，地位特殊，故在行动中负责联络。</t>
+    <t>&lt;color=#554B3E&gt;西蒙是猫咪狩猎幸存者的后裔，幼年在流亡中度过。六个月大时，他被组织收留，此后便在各国间穿梭，立下了赫赫功劳。议会的元老们一致认同，他将是颠覆人类统治，重拾昔日猫咪荣光的希望。
+西蒙是本次阴谋得负责者，将指挥整个行动。&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#554B3E&gt;卡莉出生于贵族家庭中。她拥有纯正的波斯猫血统，因姣好的形象而深受王后喜爱。三个月前，她外出游历时，偶然目睹了猫咪审判的惨状。于是她加入了共济会，致力于改变一切。
+卡莉是王后的爱猫，地位特殊，故在行动中负责联络。&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#554B3E&gt;在因西亚地区，凯修大名无猫不知。他出生于商人家庭，深谙观察人心的技巧。两年前，商人在被因西亚老国王处死。他逃了出来，并在巧合下加入了猫咪共济会。
+凯修平时负责因西亚地区新猫的培训。这次行动，他会作为本地的支援代表参与。&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#554B3E&gt;科恩是共济会里的元老级猫咪，已在组织中正式工作超过五年，平时主要负责主持晋升与新成员的授洗。他精通多国的人类古文字，对旧的资料文献颇有研究，是猫咪共济会中重要的学者。
+这次特地从北方的国度前来因西亚支援，协助破译文献中隐藏着的线索。&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,7 +709,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -803,10 +803,10 @@
         <v>20</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>61002</v>
       </c>
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>61003</v>
       </c>
@@ -861,7 +861,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
@@ -890,7 +890,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B510539-5A63-455D-B385-B0885E194DB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF21C0E7-5DE2-4889-BBC2-994F1DA88F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="5025" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5505" yWindow="3540" windowWidth="25785" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#猫咪信息" sheetId="1" r:id="rId1"/>
@@ -264,11 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#554B3E&gt;西蒙是猫咪狩猎幸存者的后裔，幼年在流亡中度过。六个月大时，他被组织收留，此后便在各国间穿梭，立下了赫赫功劳。议会的元老们一致认同，他将是颠覆人类统治，重拾昔日猫咪荣光的希望。
-西蒙是本次阴谋得负责者，将指挥整个行动。&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#554B3E&gt;卡莉出生于贵族家庭中。她拥有纯正的波斯猫血统，因姣好的形象而深受王后喜爱。三个月前，她外出游历时，偶然目睹了猫咪审判的惨状。于是她加入了共济会，致力于改变一切。
 卡莉是王后的爱猫，地位特殊，故在行动中负责联络。&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +276,11 @@
   <si>
     <t>&lt;color=#554B3E&gt;科恩是共济会里的元老级猫咪，已在组织中正式工作超过五年，平时主要负责主持晋升与新成员的授洗。他精通多国的人类古文字，对旧的资料文献颇有研究，是猫咪共济会中重要的学者。
 这次特地从北方的国度前来因西亚支援，协助破译文献中隐藏着的线索。&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#554B3E&gt;西蒙是猫咪狩猎幸存者的后裔，幼年在流亡中度过。六个月大时，他被组织收留，此后便在各国间穿梭，立下了赫赫功劳。议会的元老们一致认同，他将是颠覆人类统治，重拾昔日猫咪荣光的希望。
+西蒙是本次阴谋的负责者，将指挥整个行动。&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,7 +709,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -803,7 +803,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
@@ -832,7 +832,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
@@ -861,7 +861,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
@@ -890,7 +890,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
